--- a/minio-report-tracker/xlxs/qa-core.xlsx
+++ b/minio-report-tracker/xlxs/qa-core.xlsx
@@ -510,7 +510,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -521,13 +521,13 @@
         <v>197</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -605,13 +605,13 @@
         <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
